--- a/server/templates/excel/Energy-Meter.xlsx
+++ b/server/templates/excel/Energy-Meter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PJs\ChecksheetsApp\server\templates\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0A528E-5361-438C-9072-6799E38D581B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4F7EB5-639A-4914-B757-BF33107AF1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{7AB673AE-8271-4710-B326-4B3AD85CEB31}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>Preventive Maintenance Check List</t>
   </si>
@@ -213,6 +213,12 @@
   </si>
   <si>
     <t>Monthly Inspection for CT Building Energy Meter</t>
+  </si>
+  <si>
+    <t>{checklist_made_by}</t>
+  </si>
+  <si>
+    <t>{last_revision_approved_by}</t>
   </si>
 </sst>
 </file>
@@ -1069,22 +1075,22 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1490,8 +1496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B54C69B3-EE88-4AE0-9793-0CEE4793A61D}">
   <dimension ref="A1:AE284"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:R3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="0" customHeight="1" zeroHeight="1"/>
@@ -1614,30 +1620,30 @@
       <c r="R4" s="14"/>
     </row>
     <row r="5" spans="1:18" ht="22.15" customHeight="1" thickBot="1">
-      <c r="A5" s="127" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="128"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="127" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="128"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="130" t="s">
+      <c r="A5" s="131" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="131" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="127"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="132" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="131"/>
-      <c r="K5" s="131"/>
-      <c r="L5" s="131"/>
-      <c r="M5" s="131"/>
-      <c r="N5" s="131"/>
-      <c r="O5" s="131"/>
-      <c r="P5" s="131"/>
-      <c r="Q5" s="131"/>
-      <c r="R5" s="132"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="129"/>
+      <c r="M5" s="129"/>
+      <c r="N5" s="129"/>
+      <c r="O5" s="129"/>
+      <c r="P5" s="129"/>
+      <c r="Q5" s="129"/>
+      <c r="R5" s="130"/>
     </row>
     <row r="6" spans="1:18" ht="40.15" customHeight="1" thickTop="1">
       <c r="A6" s="21"/>
